--- a/Employee_Reports35/Jake Alinabon Salibay Q0554.xlsx
+++ b/Employee_Reports35/Jake Alinabon Salibay Q0554.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1308,11 +1308,11 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1357,11 +1357,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-390</v>
+        <v>-391</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1406,11 +1406,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1443,11 +1443,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1492,11 +1492,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1590,11 +1590,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1639,11 +1639,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1688,11 +1688,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1725,11 +1725,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1774,11 +1774,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1823,11 +1823,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">

--- a/Employee_Reports35/Jake Alinabon Salibay Q0554.xlsx
+++ b/Employee_Reports35/Jake Alinabon Salibay Q0554.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>-28</v>
+        <v>-29</v>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1308,11 +1308,11 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1357,11 +1357,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-391</v>
+        <v>-392</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1406,11 +1406,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1443,11 +1443,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1492,11 +1492,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1541,11 +1541,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1590,11 +1590,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1639,11 +1639,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1688,11 +1688,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1725,11 +1725,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1774,11 +1774,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1823,11 +1823,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
